--- a/data/trans_camb/P19C06-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P19C06-Edad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.145306742473534</v>
+        <v>-1.373509032126159</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.673753412052921</v>
+        <v>-1.801866314727473</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.470243278356244</v>
+        <v>-1.301973437838652</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.416772828841382</v>
+        <v>-1.42960162956772</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.179266655222306</v>
+        <v>-1.256388338160282</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.453071524085535</v>
+        <v>-1.455410628782982</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.066092707754192</v>
+        <v>-0.9543920980187011</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.9797435660073125</v>
+        <v>-0.9990574151934011</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.193288523096891</v>
+        <v>-1.118725912412839</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.921528205769176</v>
+        <v>1.860038229994423</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.171293815532666</v>
+        <v>1.317488287821751</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.607309064546153</v>
+        <v>2.779085401536243</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.073842865743351</v>
+        <v>1.118539760092086</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.685881579673176</v>
+        <v>1.682176432744486</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.217771952418143</v>
+        <v>1.431238464424721</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.067741541235679</v>
+        <v>1.04430342255975</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.080820836422874</v>
+        <v>1.05495609874154</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.252090654838587</v>
+        <v>1.333162066359166</v>
       </c>
     </row>
     <row r="7">
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.8304725309360173</v>
+        <v>-0.87506007073696</v>
       </c>
       <c r="D8" s="6" t="inlineStr"/>
       <c r="E8" s="6" t="inlineStr"/>
@@ -792,13 +792,13 @@
       </c>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="n">
-        <v>-0.68775777357707</v>
+        <v>-0.6756580601647735</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.7121073289214879</v>
+        <v>-0.6900234741911818</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-1</v>
+        <v>-0.8871682306741144</v>
       </c>
     </row>
     <row r="9">
@@ -809,25 +809,25 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>6.792874407814848</v>
+        <v>7.683248722534127</v>
       </c>
       <c r="D9" s="6" t="inlineStr"/>
       <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="n">
-        <v>6.587400428086918</v>
+        <v>6.323900686800799</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>6.051397334589783</v>
+        <v>5.760137838339404</v>
       </c>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>2.475385499640743</v>
+        <v>2.654325089417414</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.41587068218533</v>
+        <v>2.46076678242944</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>3.514761230898025</v>
+        <v>4.061556399438679</v>
       </c>
     </row>
     <row r="10">
@@ -857,7 +857,7 @@
         <v>0.6125315974242113</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.3171628115113729</v>
+        <v>0.3171628115113731</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.1833717770118317</v>
@@ -866,7 +866,7 @@
         <v>0.5372710193960792</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.1178782300051893</v>
+        <v>0.1178782300051895</v>
       </c>
     </row>
     <row r="11">
@@ -877,31 +877,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.8219488984972421</v>
+        <v>-0.779884150001303</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.5579141047766275</v>
+        <v>-0.5730096303172011</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.8949194085374347</v>
+        <v>-0.9739337910911217</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.8850401947244282</v>
+        <v>-0.9302267814350255</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.4522679935935354</v>
+        <v>-0.5100659343433734</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.6607191827514262</v>
+        <v>-0.6926303390042171</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.5491512330714743</v>
+        <v>-0.5338461018983349</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.2935575391201897</v>
+        <v>-0.2979540304785296</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.6452976292429503</v>
+        <v>-0.5521287053492302</v>
       </c>
     </row>
     <row r="12">
@@ -912,31 +912,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.386610530520439</v>
+        <v>1.319124485186936</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.900550941060528</v>
+        <v>1.854559666752384</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.264373524255627</v>
+        <v>1.06535320521195</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.454339732921915</v>
+        <v>1.345786208072604</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.962965037827437</v>
+        <v>1.983692402972529</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.686852514693484</v>
+        <v>1.748820362684566</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.015922323051382</v>
+        <v>0.985480960430583</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.392796401656055</v>
+        <v>1.439647616968957</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9978583108370233</v>
+        <v>0.9507266300281237</v>
       </c>
     </row>
     <row r="13">
@@ -962,7 +962,7 @@
         <v>0.8426199346028727</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4363002800475823</v>
+        <v>0.4363002800475825</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.2581703366820309</v>
@@ -971,7 +971,7 @@
         <v>0.7564274188062974</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.1659615390320289</v>
+        <v>0.1659615390320291</v>
       </c>
     </row>
     <row r="14">
@@ -982,29 +982,29 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.7773850806061726</v>
+        <v>-0.7614681245333094</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.7548366909015373</v>
+        <v>-0.6632943186584982</v>
       </c>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
-        <v>-0.8028709363261196</v>
+        <v>-0.8568926621765598</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5518947752592468</v>
+        <v>-0.5932728104402953</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.6956243288888295</v>
+        <v>-0.7375989749838656</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.5794120183445632</v>
+        <v>-0.5936291059410915</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3912521886842818</v>
+        <v>-0.3671492815583675</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.6683364117563817</v>
+        <v>-0.6250435638947626</v>
       </c>
     </row>
     <row r="15">
@@ -1015,29 +1015,29 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>5.266886467322664</v>
+        <v>5.659405236490333</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>7.623241193355964</v>
+        <v>8.37270617944079</v>
       </c>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>6.983244541775655</v>
+        <v>5.091630631530453</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>9.592282554136114</v>
+        <v>7.566995253235337</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>6.96871246821215</v>
+        <v>7.556407245060427</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.782469515048591</v>
+        <v>2.393493676830932</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>3.512360680432167</v>
+        <v>3.524179705651844</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>2.839568818552184</v>
+        <v>2.637307173074241</v>
       </c>
     </row>
     <row r="16">
@@ -1067,7 +1067,7 @@
         <v>-0.4572640887915258</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-0.6006493607045849</v>
+        <v>-0.6006493607045847</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.7206956298220484</v>
@@ -1076,7 +1076,7 @@
         <v>-0.2588841673254186</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-0.621612467855754</v>
+        <v>-0.6216124678557541</v>
       </c>
     </row>
     <row r="17">
@@ -1087,31 +1087,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.7489123480594653</v>
+        <v>-0.8379393821616979</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.180895910593287</v>
+        <v>-1.189293747611208</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.566649732542641</v>
+        <v>-1.746427876612682</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.5563574836503443</v>
+        <v>-0.5439767401858229</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.793392265032307</v>
+        <v>-1.77887658785097</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.845601642638658</v>
+        <v>-1.896967918857185</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.2959910929869262</v>
+        <v>-0.2288851057494648</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.113367732347562</v>
+        <v>-1.122120981473739</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.33390475395161</v>
+        <v>-1.466449545896536</v>
       </c>
     </row>
     <row r="18">
@@ -1122,31 +1122,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.537997004871269</v>
+        <v>1.546074481982933</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.070516277790254</v>
+        <v>1.094902040250858</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1857743530875554</v>
+        <v>0.1399905067085978</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.750393197573187</v>
+        <v>2.634017205406279</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7065604180944695</v>
+        <v>0.7222863696064119</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.369205643429555</v>
+        <v>0.4346387819172685</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.761822336545569</v>
+        <v>1.668439601882478</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5445526825700023</v>
+        <v>0.5547444037573868</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.02199738278541222</v>
+        <v>0.03217910925814316</v>
       </c>
     </row>
     <row r="19">
@@ -1172,7 +1172,7 @@
         <v>-0.3317488843206922</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.4357760868742332</v>
+        <v>-0.4357760868742331</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.6513532456003109</v>
@@ -1181,7 +1181,7 @@
         <v>-0.233975392168788</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.5618034600035499</v>
+        <v>-0.56180346000355</v>
       </c>
     </row>
     <row r="20">
@@ -1192,29 +1192,29 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.656088554319301</v>
+        <v>-0.7296726129773848</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.8655930260197296</v>
+        <v>-0.8723836728465453</v>
       </c>
       <c r="E20" s="6" t="inlineStr"/>
       <c r="F20" s="6" t="n">
-        <v>-0.30667082815871</v>
+        <v>-0.3519881828339496</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.8910826004535456</v>
+        <v>-0.8554021546157697</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.8346189923099416</v>
+        <v>-0.8347537397693295</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2145238050641317</v>
+        <v>-0.1802159811007819</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.7100674489092431</v>
+        <v>-0.7240039614191569</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.848090089569304</v>
+        <v>-0.8648877384077798</v>
       </c>
     </row>
     <row r="21">
@@ -1225,29 +1225,29 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>6.034428203465207</v>
+        <v>5.881425903986878</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>4.495179066821373</v>
+        <v>4.344907221190524</v>
       </c>
       <c r="E21" s="6" t="inlineStr"/>
       <c r="F21" s="6" t="n">
-        <v>3.87435966738731</v>
+        <v>3.467406078068827</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.244164924055961</v>
+        <v>1.237802440870186</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.8477565605048027</v>
+        <v>1.072197136479176</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>2.430368332162157</v>
+        <v>2.414499753792204</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.807651246702209</v>
+        <v>0.9269220435959276</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.1448876431716594</v>
+        <v>0.1911685063744001</v>
       </c>
     </row>
     <row r="22">
@@ -1286,7 +1286,7 @@
         <v>-0.224668556149096</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-0.005548239988742432</v>
+        <v>-0.005548239988742258</v>
       </c>
     </row>
     <row r="23">
@@ -1297,31 +1297,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.325917491632503</v>
+        <v>-0.3325911333571647</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.2776797984003264</v>
+        <v>-0.2569138606788522</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.3968629282525379</v>
+        <v>-0.4189246564253853</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.43297123783689</v>
+        <v>-2.260142502604162</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.0587312652315</v>
+        <v>-2.851771235517435</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.38126516002997</v>
+        <v>-2.305039311193719</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.9261928824224626</v>
+        <v>-0.9850159652946335</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.2511632514126</v>
+        <v>-1.27302431022925</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.054951425312496</v>
+        <v>-1.010421281248653</v>
       </c>
     </row>
     <row r="24">
@@ -1332,31 +1332,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.48517279041794</v>
+        <v>2.404885649729483</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.415272372645126</v>
+        <v>2.396383655774935</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.753293276801919</v>
+        <v>1.846964431066372</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.204867472227858</v>
+        <v>1.275415202959793</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2410949976833848</v>
+        <v>0.3349432049045376</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.7325115526147976</v>
+        <v>0.7494311607775497</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.254202625428782</v>
+        <v>1.273943425524618</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.9184889094349913</v>
+        <v>0.7773026923684031</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.9427979056868899</v>
+        <v>0.8653701323692473</v>
       </c>
     </row>
     <row r="25">
@@ -1391,7 +1391,7 @@
         <v>-0.1657068755587486</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.004092168166044959</v>
+        <v>-0.004092168166044831</v>
       </c>
     </row>
     <row r="26">
@@ -1405,22 +1405,22 @@
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="n">
-        <v>-0.7705123610559312</v>
+        <v>-0.7050003674107811</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.9022674671665115</v>
+        <v>-0.8901730175472384</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.6644750859557634</v>
+        <v>-0.6858743230867907</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.5139114913790759</v>
+        <v>-0.5172665459512811</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.6599483119581355</v>
+        <v>-0.6806279310018235</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.514845965396826</v>
+        <v>-0.519547268465496</v>
       </c>
     </row>
     <row r="27">
@@ -1434,22 +1434,22 @@
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>1.052715493377321</v>
+        <v>1.097578340556629</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.5532434795340717</v>
+        <v>0.5783342262589931</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6366899807158652</v>
+        <v>0.7008381809726973</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.62041948908992</v>
+        <v>1.380286639619386</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.254085330463699</v>
+        <v>0.9394383148431023</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.313185684289394</v>
+        <v>1.107276681404456</v>
       </c>
     </row>
     <row r="28">
@@ -1488,7 +1488,7 @@
         <v>0.4232951887939776</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-0.329587796309226</v>
+        <v>-0.3295877963092254</v>
       </c>
     </row>
     <row r="29">
@@ -1499,31 +1499,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.550870065189636</v>
+        <v>-3.937060374415254</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.053156769175384</v>
+        <v>-3.148078437601075</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-3.807479606329386</v>
+        <v>-3.853781873957104</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.495149476179574</v>
+        <v>-1.294574412510561</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.2781780871702383</v>
+        <v>-0.3839718262653508</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-1.54174110561331</v>
+        <v>-1.334892639682314</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.866713294601163</v>
+        <v>-1.739661271192305</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.9954345849692092</v>
+        <v>-1.06281850225061</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-1.811397965029748</v>
+        <v>-1.808782810129832</v>
       </c>
     </row>
     <row r="30">
@@ -1534,31 +1534,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.23089870853504</v>
+        <v>0.1645101954491068</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.449770589737821</v>
+        <v>1.527248200677525</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1827115171751961</v>
+        <v>0.2052381053502809</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.896615206020915</v>
+        <v>1.977185159483034</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.486129315189681</v>
+        <v>3.641910072649129</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.642552344552085</v>
+        <v>1.667511105485022</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.7234823871598172</v>
+        <v>0.7976055177758873</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.044690812330028</v>
+        <v>1.858387378546729</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.6797137339945869</v>
+        <v>0.6243574437476788</v>
       </c>
     </row>
     <row r="31">
@@ -1575,7 +1575,7 @@
         <v>-0.3083690123321952</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.582875550253705</v>
+        <v>-0.5828755502537051</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.6112123998262523</v>
@@ -1593,7 +1593,7 @@
         <v>0.2699899831353486</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.2102206826887768</v>
+        <v>-0.2102206826887764</v>
       </c>
     </row>
     <row r="32">
@@ -1607,26 +1607,28 @@
         <v>-1</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.8729902215959211</v>
+        <v>-0.8458316393350764</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.8812372052415064</v>
-      </c>
-      <c r="F32" s="6" t="inlineStr"/>
+        <v>-0.8908997401657335</v>
+      </c>
+      <c r="F32" s="6" t="n">
+        <v>-0.9508525315068136</v>
+      </c>
       <c r="G32" s="6" t="n">
-        <v>-0.6575366712035671</v>
+        <v>-0.6592671378209702</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.6830646659261312</v>
+        <v>-0.6782052483587703</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.7785447723333369</v>
+        <v>-0.7560914802213778</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.4611177604678433</v>
+        <v>-0.4679657772306379</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.6621024600140313</v>
+        <v>-0.6583324461482636</v>
       </c>
     </row>
     <row r="33">
@@ -1637,25 +1639,25 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.7453183821536824</v>
+        <v>0.5141198601277482</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.460706033740898</v>
+        <v>1.654806844168565</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.3053415980269793</v>
+        <v>0.431676508302629</v>
       </c>
       <c r="F33" s="6" t="inlineStr"/>
       <c r="G33" s="6" t="inlineStr"/>
       <c r="H33" s="6" t="inlineStr"/>
       <c r="I33" s="6" t="n">
-        <v>0.9561067383557935</v>
+        <v>1.060370823336886</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>2.868815221479079</v>
+        <v>2.1456468160218</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.9153839631155819</v>
+        <v>0.8385767094824533</v>
       </c>
     </row>
     <row r="34">
@@ -1705,31 +1707,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-3.32191006658526</v>
+        <v>-3.215709251531049</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-2.067347181169938</v>
+        <v>-2.134965111134373</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-3.067028928770369</v>
+        <v>-2.927828639509907</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-1.149595455776822</v>
+        <v>-1.404900737347826</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-1.053115839043501</v>
+        <v>-0.8100604034140767</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-1.259028775612699</v>
+        <v>-1.22856594069304</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-1.579256561208531</v>
+        <v>-1.562335425475617</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-1.056054671592696</v>
+        <v>-0.9503718009246243</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-1.486177767657068</v>
+        <v>-1.455181089285078</v>
       </c>
     </row>
     <row r="36">
@@ -1740,31 +1742,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.7197895103582959</v>
+        <v>0.7419278754864129</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>2.689619371152418</v>
+        <v>2.523463037201327</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>0.7110602404247212</v>
+        <v>0.8143983085833013</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1.593879006776262</v>
+        <v>1.653351394543573</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>2.308232560034208</v>
+        <v>2.369838109363821</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>1.370276903433812</v>
+        <v>1.327673061695821</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>0.8001216374859028</v>
+        <v>0.8022287939859402</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>1.663302342765794</v>
+        <v>1.68726325487214</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>0.700860193533658</v>
+        <v>0.6774137549419319</v>
       </c>
     </row>
     <row r="37">
@@ -1811,24 +1813,24 @@
       </c>
       <c r="C38" s="6" t="inlineStr"/>
       <c r="D38" s="6" t="n">
-        <v>-0.8493774732808266</v>
+        <v>-0.8855889145630382</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.906441434388084</v>
+        <v>-0.919775960811863</v>
       </c>
       <c r="F38" s="6" t="inlineStr"/>
       <c r="G38" s="6" t="inlineStr"/>
       <c r="H38" s="6" t="n">
-        <v>-0.8101708340403584</v>
+        <v>-0.7448624130806553</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.8359691062515947</v>
+        <v>-0.8465846190768311</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.703509663315309</v>
+        <v>-0.6466484354361508</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.6984304478168694</v>
+        <v>-0.693467646455441</v>
       </c>
     </row>
     <row r="39">
@@ -1840,22 +1842,22 @@
       </c>
       <c r="C39" s="6" t="inlineStr"/>
       <c r="D39" s="6" t="n">
-        <v>6.612204437542346</v>
+        <v>5.673560032332374</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2.058371439529057</v>
+        <v>2.558407706990144</v>
       </c>
       <c r="F39" s="6" t="inlineStr"/>
       <c r="G39" s="6" t="inlineStr"/>
       <c r="H39" s="6" t="inlineStr"/>
       <c r="I39" s="6" t="n">
-        <v>2.501421175361832</v>
+        <v>2.027805954857738</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>2.797154648495928</v>
+        <v>3.354647079910071</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.702722702204203</v>
+        <v>1.499831337649231</v>
       </c>
     </row>
     <row r="40">
@@ -1905,31 +1907,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-8.138813830305283</v>
+        <v>-7.496625343608551</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-6.341291361825053</v>
+        <v>-6.023041028051868</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-7.417821412161565</v>
+        <v>-7.258392704454226</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-1.247632317918527</v>
+        <v>-1.042030706575134</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.533824861100191</v>
+        <v>-0.5409362441163397</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-1.911439430968524</v>
+        <v>-1.608422400884985</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-2.475391669534928</v>
+        <v>-2.630320706374616</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-1.455129793297036</v>
+        <v>-1.599494659365549</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-2.716349137620829</v>
+        <v>-3.164068031169773</v>
       </c>
     </row>
     <row r="42">
@@ -1940,31 +1942,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-0.7499679453073792</v>
+        <v>-0.741726651062419</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.199295463460217</v>
+        <v>1.209279344928472</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-0.314267016241578</v>
+        <v>0</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2.243727461125001</v>
+        <v>2.261010001801904</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>4.404723739724912</v>
+        <v>4.765782146982566</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>0.9893688687815329</v>
+        <v>0.9612025534495749</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>0.6471380584901817</v>
+        <v>0.6022608621072036</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>2.343793261301594</v>
+        <v>2.215244082712034</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>0.3288973753122451</v>
+        <v>0.2645103258890441</v>
       </c>
     </row>
     <row r="43">
@@ -2017,10 +2019,10 @@
       <c r="H44" s="6" t="inlineStr"/>
       <c r="I44" s="6" t="inlineStr"/>
       <c r="J44" s="6" t="n">
-        <v>-0.7114504231180026</v>
+        <v>-0.7960701245234914</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.8824649341592344</v>
+        <v>-0.9033251835209586</v>
       </c>
     </row>
     <row r="45">
@@ -2038,10 +2040,10 @@
       <c r="H45" s="6" t="inlineStr"/>
       <c r="I45" s="6" t="inlineStr"/>
       <c r="J45" s="6" t="n">
-        <v>6.135521114780093</v>
+        <v>4.641817878478321</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.152997138049224</v>
+        <v>0.4929916609546341</v>
       </c>
     </row>
     <row r="46">
@@ -2062,7 +2064,7 @@
         <v>0.08881778725905887</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>-0.3289684625747576</v>
+        <v>-0.3289684625747574</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>0.305519935882532</v>
@@ -2080,7 +2082,7 @@
         <v>0.1484887351267589</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>-0.177684352982904</v>
+        <v>-0.1776843529829039</v>
       </c>
     </row>
     <row r="47">
@@ -2091,31 +2093,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-0.6738016598363871</v>
+        <v>-0.6402937778396119</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.5125170531991626</v>
+        <v>-0.5066730274696735</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-0.8968377386162306</v>
+        <v>-0.8402104179782677</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-0.2715373183878844</v>
+        <v>-0.2895170495690494</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-0.3792113138223747</v>
+        <v>-0.4004839615074395</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-0.5319977486380527</v>
+        <v>-0.541900806934648</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-0.3177881371854742</v>
+        <v>-0.2828322025497341</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-0.2888981391059252</v>
+        <v>-0.2906701385710667</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-0.5519440046374534</v>
+        <v>-0.5209610849845274</v>
       </c>
     </row>
     <row r="48">
@@ -2126,31 +2128,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.4841239267765829</v>
+        <v>0.4338918745991402</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.747748530951974</v>
+        <v>0.669407464783236</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>0.1745672491501836</v>
+        <v>0.1554441359592744</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>0.8693066546364465</v>
+        <v>0.9102504974324793</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>0.791112400023037</v>
+        <v>0.769549157032323</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>0.4270653233819087</v>
+        <v>0.4142873322152686</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>0.4926223532286538</v>
+        <v>0.5177730618392936</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>0.5961307634499646</v>
+        <v>0.565917698137017</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>0.1986237807712188</v>
+        <v>0.1967716641761759</v>
       </c>
     </row>
     <row r="49">
@@ -2167,7 +2169,7 @@
         <v>0.0809401462990942</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.2997907999095441</v>
+        <v>-0.2997907999095439</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.270253797032418</v>
@@ -2185,7 +2187,7 @@
         <v>0.1331948793621852</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>-0.1593834437333079</v>
+        <v>-0.1593834437333077</v>
       </c>
     </row>
     <row r="50">
@@ -2196,31 +2198,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.4810548808644355</v>
+        <v>-0.4692718491513945</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.3565072302761981</v>
+        <v>-0.381388986737021</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.6028138081912271</v>
+        <v>-0.5943910313319869</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.2223985737197496</v>
+        <v>-0.21622726580414</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.2790070159621323</v>
+        <v>-0.2950672652014971</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.3723882304635043</v>
+        <v>-0.3730780982326067</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.2340198707026509</v>
+        <v>-0.215231469851338</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.2308688606839429</v>
+        <v>-0.2251925572667429</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.4102690362702021</v>
+        <v>-0.3901540283003052</v>
       </c>
     </row>
     <row r="51">
@@ -2231,31 +2233,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.616866679804204</v>
+        <v>0.5049381497560484</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.9681408151450579</v>
+        <v>0.8410247725061278</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.3011618664526383</v>
+        <v>0.2024427581812652</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>1.014282430258189</v>
+        <v>1.066164574250529</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.9446225023740317</v>
+        <v>0.9002892270197073</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.5137221166038678</v>
+        <v>0.4929690617493439</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.528935794223469</v>
+        <v>0.5490228981262431</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.6432471792513476</v>
+        <v>0.6219564086604975</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.2373774636318823</v>
+        <v>0.2188715881233819</v>
       </c>
     </row>
     <row r="52">
